--- a/StructureDefinition-ext-R5-Measure.term.xlsx
+++ b/StructureDefinition-ext-R5-Measure.term.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Measure.term` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Measure.term` is mapped to FHIR R4 structure `Measure`, but has no target element specified.</t>
+Element `Measure.term` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Measure</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Measure.term.code` is part of an existing definition because parent element `Measure.term` requires a cross-version extension.
-Element `Measure.term.code` is mapped to FHIR R4 structure `Measure`, but has no target element specified.</t>
+Element `Measure.term.code` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -422,7 +422,7 @@
   </si>
   <si>
     <t>Element `Measure.term.definition` is part of an existing definition because parent element `Measure.term` requires a cross-version extension.
-Element `Measure.term.definition` is mapped to FHIR R4 structure `Measure`, but has no target element specified.</t>
+Element `Measure.term.definition` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Extension.extension:definition.id</t>
@@ -788,7 +788,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="114.96484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="122.7109375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Measure.term.xlsx
+++ b/StructureDefinition-ext-R5-Measure.term.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Measure.term` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Measure.term` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+Element `Measure.term` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Measure.term.code` is part of an existing definition because parent element `Measure.term` requires a cross-version extension.
-Element `Measure.term.code` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+Element `Measure.term.code` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term.code</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -422,7 +425,7 @@
   </si>
   <si>
     <t>Element `Measure.term.definition` is part of an existing definition because parent element `Measure.term` requires a cross-version extension.
-Element `Measure.term.definition` is will have a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+Element `Measure.term.definition` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Extension.extension:definition.id</t>
@@ -432,6 +435,9 @@
   </si>
   <si>
     <t>Extension.extension:definition.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term.definition</t>
   </si>
   <si>
     <t>Extension.extension:definition.value[x]</t>
@@ -788,7 +794,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="122.7109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="116.72265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1594,7 +1600,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1636,7 +1642,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1651,15 +1657,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1682,7 +1688,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1739,7 +1745,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1751,21 +1757,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1790,14 +1796,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1866,7 +1872,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1969,7 +1975,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2074,7 +2080,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2117,7 +2123,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2159,7 +2165,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2174,15 +2180,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2205,13 +2211,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2262,7 +2268,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2274,18 +2280,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2367,7 +2373,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2382,15 +2388,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2413,13 +2419,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2470,7 +2476,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2482,10 +2488,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Measure.term.xlsx
+++ b/StructureDefinition-ext-R5-Measure.term.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-Measure.term.xlsx
+++ b/StructureDefinition-ext-R5-Measure.term.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>A codeable representation of the defined term.</t>
   </si>
   <si>
-    <t>Element `Measure.term.code` is part of an existing definition because parent element `Measure.term` requires a cross-version extension.
-Element `Measure.term.code` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Element `Measure.term.code` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term.code</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -405,6 +401,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codeable representations of measure definition terms.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-measure-definition-example-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -424,8 +429,7 @@
     <t>Provides a definition for the term as used within the measure.</t>
   </si>
   <si>
-    <t>Element `Measure.term.definition` is part of an existing definition because parent element `Measure.term` requires a cross-version extension.
-Element `Measure.term.definition` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
+    <t>Element `Measure.term.definition` has a context of Measure based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Extension.extension:definition.id</t>
@@ -435,9 +439,6 @@
   </si>
   <si>
     <t>Extension.extension:definition.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Measure.term.definition</t>
   </si>
   <si>
     <t>Extension.extension:definition.value[x]</t>
@@ -804,8 +805,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.9765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.5078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1600,49 +1601,49 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1657,15 +1658,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1688,7 +1689,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1721,13 +1722,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1745,7 +1746,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1757,21 +1758,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1796,14 +1797,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1872,7 +1873,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1975,7 +1976,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2080,7 +2081,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2123,7 +2124,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2165,7 +2166,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2180,15 +2181,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2211,13 +2212,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2268,7 +2269,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2280,18 +2281,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2373,7 +2374,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2388,15 +2389,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2419,13 +2420,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2476,7 +2477,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2488,10 +2489,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
